--- a/12.xlsx
+++ b/12.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C0D98D-9DEB-469D-9446-0F32D131B7B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA6B6F9-C864-4A7F-B1DC-F5B4737DBF78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Идентификатор</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>Дефект</t>
-  </si>
-  <si>
-    <t>все заебись</t>
   </si>
 </sst>
 </file>
@@ -421,8 +418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="A1:I1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -488,9 +485,6 @@
       <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
       <c r="I2">
         <v>56</v>
       </c>
